--- a/pred_ohlcv/54_21/2020-01-23 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 WTC ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-19242.27814363782</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-21682.07754363782</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-22254.30854363782</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-33487.44874363781</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-33487.44874363781</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-34120.16304363781</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-28641.41344363781</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-27221.28054363781</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-27221.28054363781</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-27367.78054363781</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-26430.78054363781</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-22478.13424363781</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-22275.62474363781</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-23412.62474363781</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-21971.62474363781</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-21971.62474363781</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-21478.93594363781</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-20954.63874363781</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-20954.63874363781</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-21030.85414363781</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-21029.85414363781</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-21031.85414363781</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-21588.35074363781</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-21588.35074363781</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-25266.02654363781</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-25243.02654363781</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-25489.02654363781</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-25489.02654363781</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-25479.10064363781</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-25470.17744363781</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-25610.48464363781</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-28427.88324363781</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-28427.88324363781</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-28427.88324363781</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-30163.59364363781</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-49588.41374363781</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-39669.68874363781</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-39669.68874363781</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-57208.65284363782</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-57208.65284363782</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-57208.65284363782</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-57208.65284363782</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-66023.37734363783</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-66982.28424363783</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-66982.28424363783</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-67282.28424363783</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-67282.28424363783</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-67282.28424363783</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-161979.656499045</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-161524.574799045</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-174535.905399045</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-174535.905399045</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-174498.905399045</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-174498.905399045</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-198274.682699045</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-200650.154999045</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-207690.6596990449</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-207232.0510990449</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-207876.4510990449</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-226433.9029990449</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-233688.9029990449</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-233688.9029990449</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-234010.1029990449</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-233835.8668990449</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-233834.6668990449</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-236634.4856990449</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-236633.2856990449</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-235227.2785990449</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 WTC ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>-33487.44874363781</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-33487.44874363781</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-34120.16304363781</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-27367.78054363781</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-22478.13424363781</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-23412.62474363781</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-21971.62474363781</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-21971.62474363781</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-21478.93594363781</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-20954.63874363781</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-20954.63874363781</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-21030.85414363781</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-21029.85414363781</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-21031.85414363781</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-21588.35074363781</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-21588.35074363781</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-25266.02654363781</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-25243.02654363781</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-25489.02654363781</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-25489.02654363781</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-25479.10064363781</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-25470.17744363781</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-25610.48464363781</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-28427.88324363781</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-28427.88324363781</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-28427.88324363781</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-30163.59364363781</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-39669.68874363781</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-39669.68874363781</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-39669.68874363781</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-40215.68874363781</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-60854.35414363781</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-57019.04664363782</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-57021.04664363782</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-55941.04664363782</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-64339.90694363782</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-64339.90694363782</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-64339.90694363782</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-65959.90694363782</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-65959.90694363782</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-67418.90694363782</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-67418.90694363782</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-57208.65284363782</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-57208.65284363782</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-57208.65284363782</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-57208.65284363782</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-57208.65284363782</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-57208.65284363782</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-66023.37734363783</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-66982.28424363783</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-66982.28424363783</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-67282.28424363783</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-67282.28424363783</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-67282.28424363783</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-67282.28424363783</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-67282.28424363783</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-67282.28424363783</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-69280.28424363783</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-161979.656499045</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-161524.574799045</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-174535.905399045</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-174535.905399045</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-174498.905399045</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-174498.905399045</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-198274.682699045</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-200650.154999045</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-207690.6596990449</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-207232.0510990449</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-207876.4510990449</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-226433.9029990449</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-233688.9029990449</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-234010.1029990449</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-233835.8668990449</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-233834.6668990449</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-236634.4856990449</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-236633.2856990449</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-235227.2785990449</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
